--- a/output/3Y_P14_KFSDIV.xlsx
+++ b/output/3Y_P14_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0976</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-11</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.8505</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.8576</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.5699</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5994</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.6663</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.701</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8109</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.9322</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.5846</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2867</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.0645</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8083</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.5636</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.1788</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.5668</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.962</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.2659</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.4103</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.3976</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.9013</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.3527</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8804</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6268</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3636</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8711</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1252</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1934</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1176</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3311</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3637</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6447</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.486</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.1958</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.4264</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>17.107</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.8894</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0976</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-11</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.8505</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.8576</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.5699</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5994</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.6663</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.701</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8109</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.9322</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.5846</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2867</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.0645</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8083</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.5636</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.1788</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.5668</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.962</v>
@@ -3786,10 +3789,10 @@
         <v>186190.8447</v>
       </c>
       <c r="K18" s="1">
-        <v>141104.3504</v>
+        <v>141127.606</v>
       </c>
       <c r="L18" s="1">
-        <v>12.8208</v>
+        <v>12.8229</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.2659</v>
@@ -3839,10 +3842,10 @@
         <v>180425.2936</v>
       </c>
       <c r="K19" s="1">
-        <v>157814.26</v>
+        <v>157837.5156</v>
       </c>
       <c r="L19" s="1">
-        <v>12.9353</v>
+        <v>12.9372</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.4103</v>
@@ -3892,10 +3895,10 @@
         <v>192421.2266</v>
       </c>
       <c r="K20" s="1">
-        <v>188588.6257</v>
+        <v>188611.8813</v>
       </c>
       <c r="L20" s="1">
-        <v>12.8255</v>
+        <v>12.8271</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.3976</v>
@@ -3945,10 +3948,10 @@
         <v>202194.777</v>
       </c>
       <c r="K21" s="1">
-        <v>196501.3755</v>
+        <v>196524.6311</v>
       </c>
       <c r="L21" s="1">
-        <v>12.8093</v>
+        <v>12.8108</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.9013</v>
@@ -3998,10 +4001,10 @@
         <v>227183.0307</v>
       </c>
       <c r="K22" s="1">
-        <v>206737.069</v>
+        <v>206760.3246</v>
       </c>
       <c r="L22" s="1">
-        <v>12.7896</v>
+        <v>12.791</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.3527</v>
@@ -4051,10 +4054,10 @@
         <v>244523.1813</v>
       </c>
       <c r="K23" s="1">
-        <v>208618.7052</v>
+        <v>208641.9608</v>
       </c>
       <c r="L23" s="1">
-        <v>12.7908</v>
+        <v>12.7922</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8804</v>
@@ -4104,10 +4107,10 @@
         <v>263206.2145</v>
       </c>
       <c r="K24" s="1">
-        <v>211281.6777</v>
+        <v>211304.9333</v>
       </c>
       <c r="L24" s="1">
-        <v>12.7979</v>
+        <v>12.7993</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6268</v>
@@ -4157,10 +4160,10 @@
         <v>292999.5764</v>
       </c>
       <c r="K25" s="1">
-        <v>212593.2393</v>
+        <v>212616.4949</v>
       </c>
       <c r="L25" s="1">
-        <v>12.8042</v>
+        <v>12.8056</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3636</v>
@@ -4210,10 +4213,10 @@
         <v>315088.687</v>
       </c>
       <c r="K26" s="1">
-        <v>210214.2244</v>
+        <v>210246.9759</v>
       </c>
       <c r="L26" s="1">
-        <v>12.7859</v>
+        <v>12.7879</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8711</v>
@@ -4263,10 +4266,10 @@
         <v>300802.6745</v>
       </c>
       <c r="K27" s="1">
-        <v>208116.7345</v>
+        <v>208157.8653</v>
       </c>
       <c r="L27" s="1">
-        <v>12.7641</v>
+        <v>12.7667</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1252</v>
@@ -4316,10 +4319,10 @@
         <v>322765.3731</v>
       </c>
       <c r="K28" s="1">
-        <v>242540.204</v>
+        <v>242581.3348</v>
       </c>
       <c r="L28" s="1">
-        <v>12.9138</v>
+        <v>12.916</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1934</v>
@@ -4369,10 +4372,10 @@
         <v>334046.7882</v>
       </c>
       <c r="K29" s="1">
-        <v>247798.2019</v>
+        <v>247839.3327</v>
       </c>
       <c r="L29" s="1">
-        <v>12.9378</v>
+        <v>12.94</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1176</v>
@@ -4422,10 +4425,10 @@
         <v>342517.5243</v>
       </c>
       <c r="K30" s="1">
-        <v>256530.6735</v>
+        <v>256571.8043</v>
       </c>
       <c r="L30" s="1">
-        <v>12.9777</v>
+        <v>12.9798</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3311</v>
@@ -4475,10 +4478,10 @@
         <v>386292.4255</v>
       </c>
       <c r="K31" s="1">
-        <v>268071.1548</v>
+        <v>268112.2856</v>
       </c>
       <c r="L31" s="1">
-        <v>13.024</v>
+        <v>13.026</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3637</v>
@@ -4528,10 +4531,10 @@
         <v>396931.6244</v>
       </c>
       <c r="K32" s="1">
-        <v>253085.4271</v>
+        <v>253186.4548</v>
       </c>
       <c r="L32" s="1">
-        <v>12.9077</v>
+        <v>12.9128</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6447</v>
@@ -4581,10 +4584,10 @@
         <v>392385.7633</v>
       </c>
       <c r="K33" s="1">
-        <v>262483.7739</v>
+        <v>262584.8016</v>
       </c>
       <c r="L33" s="1">
-        <v>12.9828</v>
+        <v>12.9878</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.486</v>
@@ -4634,10 +4637,10 @@
         <v>438866.3474</v>
       </c>
       <c r="K34" s="1">
-        <v>287090.3547</v>
+        <v>287191.3824</v>
       </c>
       <c r="L34" s="1">
-        <v>13.1123</v>
+        <v>13.1169</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.1958</v>
@@ -4687,10 +4690,10 @@
         <v>463992.326</v>
       </c>
       <c r="K35" s="1">
-        <v>278673.9241</v>
+        <v>278808.5807</v>
       </c>
       <c r="L35" s="1">
-        <v>13.0512</v>
+        <v>13.0575</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.4264</v>
@@ -4740,10 +4743,10 @@
         <v>478834.624</v>
       </c>
       <c r="K36" s="1">
-        <v>273527.3951</v>
+        <v>273682.602</v>
       </c>
       <c r="L36" s="1">
-        <v>13.0033</v>
+        <v>13.0107</v>
       </c>
       <c r="M36" s="1">
         <v>0.75</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>17.107</v>
@@ -4793,10 +4796,10 @@
         <v>517513.4798</v>
       </c>
       <c r="K37" s="1">
-        <v>278705.7674</v>
+        <v>278860.9743</v>
       </c>
       <c r="L37" s="1">
-        <v>13.0543</v>
+        <v>13.0615</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.8894</v>
@@ -4846,10 +4849,10 @@
         <v>522933.5632</v>
       </c>
       <c r="K38" s="1">
-        <v>274186.9285</v>
+        <v>274360.1935</v>
       </c>
       <c r="L38" s="1">
-        <v>13.0032</v>
+        <v>13.0114</v>
       </c>
       <c r="M38" s="1">
         <v>1</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0976</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-11</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.8505</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.8576</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.5699</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5994</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.6663</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.701</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8109</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.9322</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.5846</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2867</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.0645</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8083</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.5636</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.1788</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.5668</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.962</v>
@@ -5826,10 +5829,10 @@
         <v>186654.4133</v>
       </c>
       <c r="K18" s="1">
-        <v>146816.0716</v>
+        <v>146838.4782</v>
       </c>
       <c r="L18" s="1">
-        <v>12.8466</v>
+        <v>12.8486</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.2659</v>
@@ -5879,10 +5882,10 @@
         <v>180227.5608</v>
       </c>
       <c r="K19" s="1">
-        <v>164616.0746</v>
+        <v>164638.4812</v>
       </c>
       <c r="L19" s="1">
-        <v>12.9612</v>
+        <v>12.9629</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.4103</v>
@@ -5932,10 +5935,10 @@
         <v>192309.0464</v>
       </c>
       <c r="K20" s="1">
-        <v>197129.3267</v>
+        <v>197151.7333</v>
       </c>
       <c r="L20" s="1">
-        <v>12.8456</v>
+        <v>12.847</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.3976</v>
@@ -5985,10 +5988,10 @@
         <v>202070.1782</v>
       </c>
       <c r="K21" s="1">
-        <v>205892.2645</v>
+        <v>205914.6711</v>
       </c>
       <c r="L21" s="1">
-        <v>12.8275</v>
+        <v>12.8289</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.9013</v>
@@ -6038,10 +6041,10 @@
         <v>227771.8461</v>
       </c>
       <c r="K22" s="1">
-        <v>217134.9853</v>
+        <v>217157.3919</v>
       </c>
       <c r="L22" s="1">
-        <v>12.8059</v>
+        <v>12.8072</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.3527</v>
@@ -6091,10 +6094,10 @@
         <v>245488.666</v>
       </c>
       <c r="K23" s="1">
-        <v>219670.3827</v>
+        <v>219692.7893</v>
       </c>
       <c r="L23" s="1">
-        <v>12.8073</v>
+        <v>12.8086</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8804</v>
@@ -6144,10 +6147,10 @@
         <v>264640.789</v>
       </c>
       <c r="K24" s="1">
-        <v>223061.1822</v>
+        <v>223083.5888</v>
       </c>
       <c r="L24" s="1">
-        <v>12.8156</v>
+        <v>12.8169</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6268</v>
@@ -6197,10 +6200,10 @@
         <v>295539.4746</v>
       </c>
       <c r="K25" s="1">
-        <v>225063.2255</v>
+        <v>225085.6321</v>
       </c>
       <c r="L25" s="1">
-        <v>12.8246</v>
+        <v>12.8259</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3636</v>
@@ -6250,10 +6253,10 @@
         <v>318349.8795</v>
       </c>
       <c r="K26" s="1">
-        <v>223197.036</v>
+        <v>223226.8916</v>
       </c>
       <c r="L26" s="1">
-        <v>12.8112</v>
+        <v>12.8129</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8711</v>
@@ -6303,10 +6306,10 @@
         <v>302549.2796</v>
       </c>
       <c r="K27" s="1">
-        <v>221652.0568</v>
+        <v>221688.0844</v>
       </c>
       <c r="L27" s="1">
-        <v>12.7962</v>
+        <v>12.7983</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1252</v>
@@ -6356,10 +6359,10 @@
         <v>325268.1058</v>
       </c>
       <c r="K28" s="1">
-        <v>258929.4656</v>
+        <v>258965.4933</v>
       </c>
       <c r="L28" s="1">
-        <v>12.9441</v>
+        <v>12.9459</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1934</v>
@@ -6409,10 +6412,10 @@
         <v>336633.5057</v>
       </c>
       <c r="K29" s="1">
-        <v>265266.4217</v>
+        <v>265302.4494</v>
       </c>
       <c r="L29" s="1">
-        <v>12.9706</v>
+        <v>12.9723</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1176</v>
@@ -6462,10 +6465,10 @@
         <v>344993.4333</v>
       </c>
       <c r="K30" s="1">
-        <v>275357.5461</v>
+        <v>275393.5738</v>
       </c>
       <c r="L30" s="1">
-        <v>13.0125</v>
+        <v>13.0142</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3311</v>
@@ -6515,10 +6518,10 @@
         <v>391215.1182</v>
       </c>
       <c r="K31" s="1">
-        <v>288508.5684</v>
+        <v>288544.596</v>
       </c>
       <c r="L31" s="1">
-        <v>13.0602</v>
+        <v>13.0618</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3637</v>
@@ -6568,10 +6571,10 @@
         <v>401902.8966</v>
       </c>
       <c r="K32" s="1">
-        <v>273252.0367</v>
+        <v>273349.0436</v>
       </c>
       <c r="L32" s="1">
-        <v>12.9519</v>
+        <v>12.9565</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6447</v>
@@ -6621,10 +6624,10 @@
         <v>396208.1488</v>
       </c>
       <c r="K33" s="1">
-        <v>284222.0837</v>
+        <v>284319.0906</v>
       </c>
       <c r="L33" s="1">
-        <v>13.0317</v>
+        <v>13.0361</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.486</v>
@@ -6674,10 +6677,10 @@
         <v>445609.0407</v>
       </c>
       <c r="K34" s="1">
-        <v>311654.6284</v>
+        <v>311751.6354</v>
       </c>
       <c r="L34" s="1">
-        <v>13.1613</v>
+        <v>13.1654</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.1958</v>
@@ -6727,10 +6730,10 @@
         <v>472010.0325</v>
       </c>
       <c r="K35" s="1">
-        <v>303471.0026</v>
+        <v>303600.7082</v>
       </c>
       <c r="L35" s="1">
-        <v>13.1077</v>
+        <v>13.1133</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.4264</v>
@@ -6780,10 +6783,10 @@
         <v>487273.9773</v>
       </c>
       <c r="K36" s="1">
-        <v>298840.6048</v>
+        <v>298988.7997</v>
       </c>
       <c r="L36" s="1">
-        <v>13.0687</v>
+        <v>13.0752</v>
       </c>
       <c r="M36" s="1">
         <v>0.75</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>17.107</v>
@@ -6833,10 +6836,10 @@
         <v>528486.6382</v>
       </c>
       <c r="K37" s="1">
-        <v>305451.0756</v>
+        <v>305599.2706</v>
       </c>
       <c r="L37" s="1">
-        <v>13.1273</v>
+        <v>13.1336</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.8894</v>
@@ -6886,10 +6889,10 @@
         <v>533482.3027</v>
       </c>
       <c r="K38" s="1">
-        <v>301538.774</v>
+        <v>301702.6033</v>
       </c>
       <c r="L38" s="1">
-        <v>13.0875</v>
+        <v>13.0946</v>
       </c>
       <c r="M38" s="1">
         <v>1</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0976</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-11</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.8505</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.8576</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.5699</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5994</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.6663</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.701</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8109</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.9322</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.5846</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2867</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.0645</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8083</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.5636</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.1788</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.5668</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.962</v>
@@ -7866,10 +7869,10 @@
         <v>187009.4041</v>
       </c>
       <c r="K18" s="1">
-        <v>152906.376</v>
+        <v>152927.8095</v>
       </c>
       <c r="L18" s="1">
-        <v>12.8805</v>
+        <v>12.8824</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.2659</v>
@@ -7919,10 +7922,10 @@
         <v>179886.5064</v>
       </c>
       <c r="K19" s="1">
-        <v>171873.3514</v>
+        <v>171894.7848</v>
       </c>
       <c r="L19" s="1">
-        <v>12.9943</v>
+        <v>12.9959</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.4103</v>
@@ -7972,10 +7975,10 @@
         <v>192008.7019</v>
       </c>
       <c r="K20" s="1">
-        <v>199844.5373</v>
+        <v>199865.9708</v>
       </c>
       <c r="L20" s="1">
-        <v>12.8909</v>
+        <v>12.8923</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.3976</v>
@@ -8025,10 +8028,10 @@
         <v>201761.6375</v>
       </c>
       <c r="K21" s="1">
-        <v>209844.5373</v>
+        <v>209865.9708</v>
       </c>
       <c r="L21" s="1">
-        <v>12.8685</v>
+        <v>12.8698</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.9013</v>
@@ -8078,10 +8081,10 @@
         <v>227661.9366</v>
       </c>
       <c r="K22" s="1">
-        <v>219844.5373</v>
+        <v>219865.9708</v>
       </c>
       <c r="L22" s="1">
-        <v>12.8475</v>
+        <v>12.8487</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.3527</v>
@@ -8131,10 +8134,10 @@
         <v>245744.6245</v>
       </c>
       <c r="K23" s="1">
-        <v>231961.0904</v>
+        <v>231982.5239</v>
       </c>
       <c r="L23" s="1">
-        <v>12.8516</v>
+        <v>12.8528</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8804</v>
@@ -8184,10 +8187,10 @@
         <v>265398.1633</v>
       </c>
       <c r="K24" s="1">
-        <v>236170.6967</v>
+        <v>236192.1301</v>
       </c>
       <c r="L24" s="1">
-        <v>12.8607</v>
+        <v>12.8618</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6268</v>
@@ -8237,10 +8240,10 @@
         <v>297481.0838</v>
       </c>
       <c r="K25" s="1">
-        <v>238958.6288</v>
+        <v>238980.0623</v>
       </c>
       <c r="L25" s="1">
-        <v>12.872</v>
+        <v>12.8731</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3636</v>
@@ -8290,10 +8293,10 @@
         <v>321067.967</v>
       </c>
       <c r="K26" s="1">
-        <v>237694.8544</v>
+        <v>237721.3322</v>
       </c>
       <c r="L26" s="1">
-        <v>12.8637</v>
+        <v>12.8651</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8711</v>
@@ -8343,10 +8346,10 @@
         <v>303631.3793</v>
       </c>
       <c r="K27" s="1">
-        <v>236801.7497</v>
+        <v>236831.7954</v>
       </c>
       <c r="L27" s="1">
-        <v>12.8557</v>
+        <v>12.8573</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1252</v>
@@ -8396,10 +8399,10 @@
         <v>327167.8265</v>
       </c>
       <c r="K28" s="1">
-        <v>277224.0686</v>
+        <v>277254.1144</v>
       </c>
       <c r="L28" s="1">
-        <v>12.9979</v>
+        <v>12.9993</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1934</v>
@@ -8449,10 +8452,10 @@
         <v>338624.3055</v>
       </c>
       <c r="K29" s="1">
-        <v>284798.0073</v>
+        <v>284828.0531</v>
       </c>
       <c r="L29" s="1">
-        <v>13.0262</v>
+        <v>13.0276</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1176</v>
@@ -8502,10 +8505,10 @@
         <v>346863.0479</v>
       </c>
       <c r="K30" s="1">
-        <v>296439.8785</v>
+        <v>296469.9242</v>
       </c>
       <c r="L30" s="1">
-        <v>13.0694</v>
+        <v>13.0707</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3311</v>
@@ -8555,10 +8558,10 @@
         <v>395761.0899</v>
       </c>
       <c r="K31" s="1">
-        <v>311427.4112</v>
+        <v>311457.457</v>
       </c>
       <c r="L31" s="1">
-        <v>13.1174</v>
+        <v>13.1187</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3637</v>
@@ -8608,10 +8611,10 @@
         <v>406502.2388</v>
       </c>
       <c r="K32" s="1">
-        <v>295959.6367</v>
+        <v>296051.506</v>
       </c>
       <c r="L32" s="1">
-        <v>13.018</v>
+        <v>13.0221</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6447</v>
@@ -8661,10 +8664,10 @@
         <v>399540.6598</v>
       </c>
       <c r="K33" s="1">
-        <v>308748.0659</v>
+        <v>308839.9352</v>
       </c>
       <c r="L33" s="1">
-        <v>13.1018</v>
+        <v>13.1057</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.486</v>
@@ -8714,10 +8717,10 @@
         <v>452166.0223</v>
       </c>
       <c r="K34" s="1">
-        <v>339394.2142</v>
+        <v>339486.0835</v>
       </c>
       <c r="L34" s="1">
-        <v>13.2298</v>
+        <v>13.2334</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.1958</v>
@@ -8767,10 +8770,10 @@
         <v>479982.1373</v>
       </c>
       <c r="K35" s="1">
-        <v>331573.4342</v>
+        <v>331696.5523</v>
       </c>
       <c r="L35" s="1">
-        <v>13.1839</v>
+        <v>13.1888</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.4264</v>
@@ -8820,10 +8823,10 @@
         <v>495715.6601</v>
       </c>
       <c r="K36" s="1">
-        <v>327628.4676</v>
+        <v>327767.3383</v>
       </c>
       <c r="L36" s="1">
-        <v>13.1542</v>
+        <v>13.1598</v>
       </c>
       <c r="M36" s="1">
         <v>0.75</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>17.107</v>
@@ -8873,10 +8876,10 @@
         <v>539754.6378</v>
       </c>
       <c r="K37" s="1">
-        <v>335953.9472</v>
+        <v>336092.8178</v>
       </c>
       <c r="L37" s="1">
-        <v>13.22</v>
+        <v>13.2255</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.8894</v>
@@ -8926,10 +8929,10 @@
         <v>544274.4014</v>
       </c>
       <c r="K38" s="1">
-        <v>332847.3739</v>
+        <v>332998.659</v>
       </c>
       <c r="L38" s="1">
-        <v>13.1918</v>
+        <v>13.1978</v>
       </c>
       <c r="M38" s="1">
         <v>1</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0976</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-11</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.8505</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.8576</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.5699</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5994</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.6663</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.701</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8109</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.9322</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.5846</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2867</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.0645</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8083</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.5636</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.1788</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.5668</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.962</v>
@@ -9906,10 +9909,10 @@
         <v>187356.9982</v>
       </c>
       <c r="K18" s="1">
-        <v>159239.5656</v>
+        <v>159259.8914</v>
       </c>
       <c r="L18" s="1">
-        <v>12.9095</v>
+        <v>12.9111</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.2659</v>
@@ -9959,10 +9962,10 @@
         <v>179501.3996</v>
       </c>
       <c r="K19" s="1">
-        <v>179455.6533</v>
+        <v>179475.9791</v>
       </c>
       <c r="L19" s="1">
-        <v>13.0228</v>
+        <v>13.0243</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.4103</v>
@@ -10012,10 +10015,10 @@
         <v>191647.9933</v>
       </c>
       <c r="K20" s="1">
-        <v>200269.1061</v>
+        <v>200289.4319</v>
       </c>
       <c r="L20" s="1">
-        <v>12.9427</v>
+        <v>12.944</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.3976</v>
@@ -10065,10 +10068,10 @@
         <v>201401.2987</v>
       </c>
       <c r="K21" s="1">
-        <v>210269.1061</v>
+        <v>210289.4319</v>
       </c>
       <c r="L21" s="1">
-        <v>12.9176</v>
+        <v>12.9188</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.9013</v>
@@ -10118,10 +10121,10 @@
         <v>227273.8519</v>
       </c>
       <c r="K22" s="1">
-        <v>220269.1061</v>
+        <v>220289.4319</v>
       </c>
       <c r="L22" s="1">
-        <v>12.8942</v>
+        <v>12.8954</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.3527</v>
@@ -10171,10 +10174,10 @@
         <v>245504.0982</v>
       </c>
       <c r="K23" s="1">
-        <v>237594.0919</v>
+        <v>237614.4177</v>
       </c>
       <c r="L23" s="1">
-        <v>12.8966</v>
+        <v>12.8977</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8804</v>
@@ -10224,10 +10227,10 @@
         <v>265559.219</v>
       </c>
       <c r="K24" s="1">
-        <v>247594.0919</v>
+        <v>247614.4177</v>
       </c>
       <c r="L24" s="1">
-        <v>12.9155</v>
+        <v>12.9165</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6268</v>
@@ -10277,10 +10280,10 @@
         <v>298800.8402</v>
       </c>
       <c r="K25" s="1">
-        <v>254313.1698</v>
+        <v>254333.4955</v>
       </c>
       <c r="L25" s="1">
-        <v>12.9399</v>
+        <v>12.9409</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3636</v>
@@ -10330,10 +10333,10 @@
         <v>323223.9151</v>
       </c>
       <c r="K26" s="1">
-        <v>253752.8817</v>
+        <v>253775.4439</v>
       </c>
       <c r="L26" s="1">
-        <v>12.9365</v>
+        <v>12.9377</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8711</v>
@@ -10383,10 +10386,10 @@
         <v>304019.4765</v>
       </c>
       <c r="K27" s="1">
-        <v>253624.3213</v>
+        <v>253647.3971</v>
       </c>
       <c r="L27" s="1">
-        <v>12.9355</v>
+        <v>12.9367</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1252</v>
@@ -10436,10 +10439,10 @@
         <v>328421.9576</v>
       </c>
       <c r="K28" s="1">
-        <v>296218.0004</v>
+        <v>296241.0761</v>
       </c>
       <c r="L28" s="1">
-        <v>13.0657</v>
+        <v>13.0667</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1934</v>
@@ -10489,10 +10492,10 @@
         <v>339971.9897</v>
       </c>
       <c r="K29" s="1">
-        <v>306527.0743</v>
+        <v>306550.15</v>
       </c>
       <c r="L29" s="1">
-        <v>13.0996</v>
+        <v>13.1006</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1176</v>
@@ -10542,10 +10545,10 @@
         <v>348078.12</v>
       </c>
       <c r="K30" s="1">
-        <v>319937.4499</v>
+        <v>319960.5256</v>
       </c>
       <c r="L30" s="1">
-        <v>13.143</v>
+        <v>13.144</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3311</v>
@@ -10595,10 +10598,10 @@
         <v>399744.0615</v>
       </c>
       <c r="K31" s="1">
-        <v>335041.0936</v>
+        <v>335064.1694</v>
       </c>
       <c r="L31" s="1">
-        <v>13.1852</v>
+        <v>13.1861</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3637</v>
@@ -10648,10 +10651,10 @@
         <v>410543.8844</v>
       </c>
       <c r="K32" s="1">
-        <v>321584.2889</v>
+        <v>321661.1505</v>
       </c>
       <c r="L32" s="1">
-        <v>13.1075</v>
+        <v>13.1106</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6447</v>
@@ -10701,10 +10704,10 @@
         <v>402184.3757</v>
       </c>
       <c r="K33" s="1">
-        <v>336474.7546</v>
+        <v>336551.6163</v>
       </c>
       <c r="L33" s="1">
-        <v>13.1942</v>
+        <v>13.1972</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.486</v>
@@ -10754,10 +10757,10 @@
         <v>458372.8218</v>
       </c>
       <c r="K34" s="1">
-        <v>370777.0258</v>
+        <v>370853.8874</v>
       </c>
       <c r="L34" s="1">
-        <v>13.3185</v>
+        <v>13.3212</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.1958</v>
@@ -10807,10 +10810,10 @@
         <v>487760.9402</v>
       </c>
       <c r="K35" s="1">
-        <v>363477.2039</v>
+        <v>363583.2328</v>
       </c>
       <c r="L35" s="1">
-        <v>13.2807</v>
+        <v>13.2845</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.4264</v>
@@ -10860,10 +10863,10 @@
         <v>504017.9144</v>
       </c>
       <c r="K36" s="1">
-        <v>360421.6765</v>
+        <v>360539.9063</v>
       </c>
       <c r="L36" s="1">
-        <v>13.2603</v>
+        <v>13.2646</v>
       </c>
       <c r="M36" s="1">
         <v>0.75</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>17.107</v>
@@ -10913,10 +10916,10 @@
         <v>551212.5762</v>
       </c>
       <c r="K37" s="1">
-        <v>370796.0771</v>
+        <v>370914.3069</v>
       </c>
       <c r="L37" s="1">
-        <v>13.3328</v>
+        <v>13.337</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.8894</v>
@@ -10966,10 +10969,10 @@
         <v>555198.1319</v>
       </c>
       <c r="K38" s="1">
-        <v>368737.496</v>
+        <v>368863.9523</v>
       </c>
       <c r="L38" s="1">
-        <v>13.3162</v>
+        <v>13.3208</v>
       </c>
       <c r="M38" s="1">
         <v>1</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>14.0809</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0032</v>
+        <v>13.0114</v>
       </c>
       <c r="E3" s="1">
-        <v>13.0875</v>
+        <v>13.0946</v>
       </c>
       <c r="F3" s="1">
-        <v>13.1918</v>
+        <v>13.1978</v>
       </c>
       <c r="G3" s="1">
-        <v>13.3162</v>
+        <v>13.3208</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>122238.5672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1971</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.906</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.7682</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.6345</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.5052</v>
       </c>
     </row>
   </sheetData>
